--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdIndustry.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdIndustry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55360B8B-4584-4F53-9065-F1DCA459E167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398D378-6F31-4900-902C-5998D5453FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y:啟用 , N:未啟用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Enable</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,6 +270,11 @@
   <si>
     <t xml:space="preserve">2021-08-26 智偉新增
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用
+N:未啟用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -935,10 +936,10 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
@@ -963,7 +964,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
@@ -1044,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>9</v>
@@ -1057,7 +1058,7 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1065,10 +1066,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>21</v>
@@ -1107,31 +1108,31 @@
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="30">
         <v>1</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:8" ht="32.4">
       <c r="A13" s="29">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>20</v>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1367,13 +1368,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
